--- a/PangkalanData/public/Template/Template Duta Bahasa Provinsi.xlsx
+++ b/PangkalanData/public/Template/Template Duta Bahasa Provinsi.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Provinsi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Tahun</t>
   </si>
@@ -57,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -78,54 +75,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,7 +104,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,17 +195,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,52 +212,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,31 +240,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,145 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,6 +449,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -471,7 +501,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,24 +523,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,171 +546,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,10 +1048,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D20" sqref="L2;D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1072,7 +1069,7 @@
     <col min="12" max="12" width="13.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:12">
+    <row r="1" ht="25" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,15 +1103,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
     </row>
     <row r="3" ht="22" customHeight="1"/>
   </sheetData>

--- a/PangkalanData/public/Template/Template Duta Bahasa Provinsi.xlsx
+++ b/PangkalanData/public/Template/Template Duta Bahasa Provinsi.xlsx
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -93,6 +93,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -101,15 +115,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,46 +139,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -194,6 +170,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -216,8 +200,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,19 +264,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,43 +294,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,115 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,26 +519,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,6 +538,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -574,30 +587,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -620,153 +609,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
